--- a/registro_template.xlsx
+++ b/registro_template.xlsx
@@ -197,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -207,61 +207,58 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -649,7 +646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="D30" sqref="D30:H35"/>
     </sheetView>
   </sheetViews>
@@ -661,145 +658,145 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
     </row>
     <row r="12" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -810,11 +807,11 @@
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -825,250 +822,250 @@
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="19"/>
+      <c r="J16" s="18"/>
     </row>
     <row r="17" spans="2:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="19"/>
+      <c r="J17" s="18"/>
     </row>
     <row r="18" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
     </row>
     <row r="22" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
     </row>
     <row r="26" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
     </row>
     <row r="27" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="9" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J29" s="9"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="34">
